--- a/results_loading_times/instance_28_times.xlsx
+++ b/results_loading_times/instance_28_times.xlsx
@@ -460,24 +460,24 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
         <v>12</v>
@@ -485,10 +485,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>17</v>
@@ -502,27 +502,27 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -533,10 +533,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
